--- a/sMail/DataMail.xlsx
+++ b/sMail/DataMail.xlsx
@@ -450,9 +450,6 @@
     <t>TN khac</t>
   </si>
   <si>
-    <t>Thanh toán tiền PN</t>
-  </si>
-  <si>
     <t>Cong them</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
   </si>
   <si>
     <t>whcpi1@wisol.co.kr</t>
+  </si>
+  <si>
+    <t>Thanh Toan Tien Lam Tet</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -657,8 +657,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,6 +716,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +797,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -984,6 +996,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1724,8 +1739,8 @@
   </sheetPr>
   <dimension ref="A1:EE6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="DM1" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="DQ8" sqref="DQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1806,7 +1821,7 @@
     <col min="113" max="113" width="14" style="59" bestFit="1" customWidth="1"/>
     <col min="114" max="118" width="14" style="59" customWidth="1"/>
     <col min="119" max="119" width="14.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="14.140625" style="51" customWidth="1"/>
+    <col min="120" max="120" width="18" style="51" customWidth="1"/>
     <col min="121" max="121" width="13.85546875" style="60" customWidth="1"/>
     <col min="122" max="126" width="13.5703125" style="45" customWidth="1"/>
     <col min="127" max="127" width="8.85546875" style="45" customWidth="1"/>
@@ -1822,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2038,22 +2053,22 @@
         <v>65</v>
       </c>
       <c r="BV1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="BW1" s="13" t="s">
+      <c r="BX1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="BY1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="CA1" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="CA1" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="CB1" s="13" t="s">
         <v>71</v>
@@ -2143,13 +2158,13 @@
         <v>94</v>
       </c>
       <c r="DE1" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="DF1" s="14" t="s">
         <v>95</v>
       </c>
       <c r="DG1" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="DH1" s="5" t="s">
         <v>96</v>
@@ -2175,53 +2190,53 @@
       <c r="DO1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="DP1" s="8" t="s">
+      <c r="DP1" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="DQ1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="DQ1" s="17" t="s">
+      <c r="DR1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DU1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="DU1" s="18" t="s">
+      <c r="DV1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DW1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DX1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DY1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EA1" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="EA1" s="19" t="s">
+      <c r="EB1" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="EB1" s="20" t="s">
+      <c r="EC1" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="EC1" s="19" t="s">
+      <c r="ED1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="ED1" s="19" t="s">
+      <c r="EE1" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="EE1" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:135" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2229,13 +2244,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>3</v>
@@ -2637,13 +2652,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>3</v>
@@ -3045,13 +3060,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>3</v>
@@ -3453,13 +3468,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>3</v>
@@ -3861,13 +3876,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>3</v>

--- a/sMail/DataMail.xlsx
+++ b/sMail/DataMail.xlsx
@@ -15,8 +15,8 @@
     <sheet name="WLP 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WLP 1'!$A$1:$EE$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'WLP 1'!$A$1:$EE$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WLP 1'!$A$1:$EF$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'WLP 1'!$A$1:$EF$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'WLP 1'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -34,7 +34,7 @@
     <author>Wisol</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="138">
   <si>
     <t>STT</t>
   </si>
@@ -544,6 +544,12 @@
   </si>
   <si>
     <t>Thanh Toan Tien Lam Tet</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LE VAN DANG</t>
   </si>
 </sst>
 </file>
@@ -797,7 +803,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -999,6 +1005,9 @@
     </xf>
     <xf numFmtId="166" fontId="17" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1737,528 +1746,530 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:EE6"/>
+  <dimension ref="A1:EF6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="DM1" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="DQ8" sqref="DQ8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="48" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="49" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11" style="59" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="61" customWidth="1"/>
-    <col min="13" max="13" width="12" style="61" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="50" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="50" customWidth="1"/>
-    <col min="16" max="16" width="10" style="52" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="52" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" style="62" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="62" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" style="62" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="62" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="62" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7.85546875" style="51" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="51" customWidth="1"/>
-    <col min="28" max="37" width="15.42578125" style="51" customWidth="1"/>
-    <col min="38" max="38" width="16.42578125" style="54" customWidth="1"/>
-    <col min="39" max="39" width="7.85546875" style="52" customWidth="1"/>
-    <col min="40" max="40" width="16.42578125" style="63" customWidth="1"/>
-    <col min="41" max="41" width="7.85546875" style="52" customWidth="1"/>
-    <col min="42" max="42" width="12.5703125" style="53" customWidth="1"/>
-    <col min="43" max="43" width="9" style="52" customWidth="1"/>
-    <col min="44" max="44" width="8.7109375" style="54" customWidth="1"/>
-    <col min="45" max="45" width="6.42578125" style="52" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" style="54" customWidth="1"/>
-    <col min="47" max="47" width="8.140625" style="52" customWidth="1"/>
-    <col min="48" max="48" width="12" style="54" customWidth="1"/>
-    <col min="49" max="49" width="8" style="52" customWidth="1"/>
-    <col min="50" max="50" width="15.28515625" style="54" customWidth="1"/>
-    <col min="51" max="51" width="15.28515625" style="52" customWidth="1"/>
-    <col min="52" max="52" width="15.28515625" style="54" customWidth="1"/>
-    <col min="53" max="53" width="11.85546875" style="55" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" style="56" customWidth="1"/>
-    <col min="55" max="55" width="8.85546875" style="45" customWidth="1"/>
-    <col min="56" max="56" width="14.85546875" style="57" customWidth="1"/>
-    <col min="57" max="57" width="7.85546875" style="45" customWidth="1"/>
-    <col min="58" max="58" width="13" style="57" customWidth="1"/>
-    <col min="59" max="59" width="7.7109375" style="45" customWidth="1"/>
-    <col min="60" max="60" width="14" style="57" customWidth="1"/>
-    <col min="61" max="61" width="7.7109375" style="45" customWidth="1"/>
-    <col min="62" max="62" width="13.85546875" style="57" customWidth="1"/>
-    <col min="63" max="63" width="7.42578125" style="45" customWidth="1"/>
-    <col min="64" max="64" width="13.140625" style="57" customWidth="1"/>
-    <col min="65" max="65" width="13.140625" style="45" customWidth="1"/>
-    <col min="66" max="66" width="18.140625" style="57" customWidth="1"/>
-    <col min="67" max="73" width="15.5703125" style="45" customWidth="1"/>
-    <col min="74" max="75" width="13.85546875" style="64" bestFit="1" customWidth="1"/>
-    <col min="76" max="78" width="12.85546875" style="64" customWidth="1"/>
-    <col min="79" max="79" width="15.42578125" style="64" customWidth="1"/>
-    <col min="80" max="80" width="12.85546875" style="64" customWidth="1"/>
-    <col min="81" max="81" width="14" style="58" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.5703125" style="55" customWidth="1"/>
-    <col min="83" max="83" width="8.85546875" style="45" customWidth="1"/>
-    <col min="84" max="85" width="7.7109375" style="45" customWidth="1"/>
-    <col min="86" max="86" width="7.42578125" style="45" customWidth="1"/>
-    <col min="87" max="87" width="8.5703125" style="55" customWidth="1"/>
-    <col min="88" max="88" width="8.85546875" style="45" customWidth="1"/>
-    <col min="89" max="90" width="7.7109375" style="45" customWidth="1"/>
-    <col min="91" max="96" width="7.42578125" style="45" customWidth="1"/>
-    <col min="97" max="98" width="13.85546875" style="64" bestFit="1" customWidth="1"/>
-    <col min="99" max="101" width="12.85546875" style="64" customWidth="1"/>
-    <col min="102" max="102" width="14" style="58" bestFit="1" customWidth="1"/>
-    <col min="103" max="111" width="14" style="58" customWidth="1"/>
-    <col min="112" max="112" width="15.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="14" style="59" bestFit="1" customWidth="1"/>
-    <col min="114" max="118" width="14" style="59" customWidth="1"/>
-    <col min="119" max="119" width="14.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="18" style="51" customWidth="1"/>
-    <col min="121" max="121" width="13.85546875" style="60" customWidth="1"/>
-    <col min="122" max="126" width="13.5703125" style="45" customWidth="1"/>
-    <col min="127" max="127" width="8.85546875" style="45" customWidth="1"/>
-    <col min="128" max="130" width="13.5703125" style="45" customWidth="1"/>
-    <col min="131" max="131" width="13.5703125" style="57" customWidth="1"/>
-    <col min="132" max="134" width="18.28515625" style="57" customWidth="1"/>
-    <col min="135" max="135" width="9.7109375" style="57" customWidth="1"/>
-    <col min="136" max="16384" width="9.140625" style="41"/>
+    <col min="2" max="2" width="22.42578125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="48" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11" style="59" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="61" customWidth="1"/>
+    <col min="14" max="14" width="12" style="61" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" style="50" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="50" customWidth="1"/>
+    <col min="17" max="17" width="10" style="52" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="52" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="62" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="62" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" style="62" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="62" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" style="62" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="7.85546875" style="51" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="51" customWidth="1"/>
+    <col min="29" max="38" width="15.42578125" style="51" customWidth="1"/>
+    <col min="39" max="39" width="16.42578125" style="54" customWidth="1"/>
+    <col min="40" max="40" width="7.85546875" style="52" customWidth="1"/>
+    <col min="41" max="41" width="16.42578125" style="63" customWidth="1"/>
+    <col min="42" max="42" width="7.85546875" style="52" customWidth="1"/>
+    <col min="43" max="43" width="12.5703125" style="53" customWidth="1"/>
+    <col min="44" max="44" width="9" style="52" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" style="54" customWidth="1"/>
+    <col min="46" max="46" width="6.42578125" style="52" customWidth="1"/>
+    <col min="47" max="47" width="11.42578125" style="54" customWidth="1"/>
+    <col min="48" max="48" width="8.140625" style="52" customWidth="1"/>
+    <col min="49" max="49" width="12" style="54" customWidth="1"/>
+    <col min="50" max="50" width="8" style="52" customWidth="1"/>
+    <col min="51" max="51" width="15.28515625" style="54" customWidth="1"/>
+    <col min="52" max="52" width="15.28515625" style="52" customWidth="1"/>
+    <col min="53" max="53" width="15.28515625" style="54" customWidth="1"/>
+    <col min="54" max="54" width="11.85546875" style="55" customWidth="1"/>
+    <col min="55" max="55" width="14.85546875" style="56" customWidth="1"/>
+    <col min="56" max="56" width="8.85546875" style="45" customWidth="1"/>
+    <col min="57" max="57" width="14.85546875" style="57" customWidth="1"/>
+    <col min="58" max="58" width="7.85546875" style="45" customWidth="1"/>
+    <col min="59" max="59" width="13" style="57" customWidth="1"/>
+    <col min="60" max="60" width="7.7109375" style="45" customWidth="1"/>
+    <col min="61" max="61" width="14" style="57" customWidth="1"/>
+    <col min="62" max="62" width="7.7109375" style="45" customWidth="1"/>
+    <col min="63" max="63" width="13.85546875" style="57" customWidth="1"/>
+    <col min="64" max="64" width="7.42578125" style="45" customWidth="1"/>
+    <col min="65" max="65" width="13.140625" style="57" customWidth="1"/>
+    <col min="66" max="66" width="13.140625" style="45" customWidth="1"/>
+    <col min="67" max="67" width="18.140625" style="57" customWidth="1"/>
+    <col min="68" max="74" width="15.5703125" style="45" customWidth="1"/>
+    <col min="75" max="76" width="13.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="77" max="79" width="12.85546875" style="64" customWidth="1"/>
+    <col min="80" max="80" width="15.42578125" style="64" customWidth="1"/>
+    <col min="81" max="81" width="12.85546875" style="64" customWidth="1"/>
+    <col min="82" max="82" width="14" style="58" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.5703125" style="55" customWidth="1"/>
+    <col min="84" max="84" width="8.85546875" style="45" customWidth="1"/>
+    <col min="85" max="86" width="7.7109375" style="45" customWidth="1"/>
+    <col min="87" max="87" width="7.42578125" style="45" customWidth="1"/>
+    <col min="88" max="88" width="8.5703125" style="55" customWidth="1"/>
+    <col min="89" max="89" width="8.85546875" style="45" customWidth="1"/>
+    <col min="90" max="91" width="7.7109375" style="45" customWidth="1"/>
+    <col min="92" max="97" width="7.42578125" style="45" customWidth="1"/>
+    <col min="98" max="99" width="13.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="100" max="102" width="12.85546875" style="64" customWidth="1"/>
+    <col min="103" max="103" width="14" style="58" bestFit="1" customWidth="1"/>
+    <col min="104" max="112" width="14" style="58" customWidth="1"/>
+    <col min="113" max="113" width="15.7109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="14" style="59" bestFit="1" customWidth="1"/>
+    <col min="115" max="119" width="14" style="59" customWidth="1"/>
+    <col min="120" max="120" width="14.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="18" style="51" customWidth="1"/>
+    <col min="122" max="122" width="13.85546875" style="60" customWidth="1"/>
+    <col min="123" max="127" width="13.5703125" style="45" customWidth="1"/>
+    <col min="128" max="128" width="8.85546875" style="45" customWidth="1"/>
+    <col min="129" max="131" width="13.5703125" style="45" customWidth="1"/>
+    <col min="132" max="132" width="13.5703125" style="57" customWidth="1"/>
+    <col min="133" max="135" width="18.28515625" style="57" customWidth="1"/>
+    <col min="136" max="136" width="9.7109375" style="57" customWidth="1"/>
+    <col min="137" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" s="21" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:136" s="21" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="6">
+      <c r="AN1" s="6">
         <v>1.5</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="6">
+      <c r="AP1" s="6">
         <v>2</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="6">
+      <c r="AR1" s="6">
         <v>2.1</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="6">
+      <c r="AT1" s="6">
         <v>2.7</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="6">
+      <c r="AV1" s="6">
         <v>3</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="6">
+      <c r="AX1" s="6">
         <v>3.9</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AY1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BA1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BF1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BG1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BI1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BK1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BL1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BM1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BO1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BP1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BR1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BS1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BT1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BU1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BV1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BV1" s="13" t="s">
+      <c r="BW1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="BW1" s="13" t="s">
+      <c r="BX1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="BY1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="CA1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="CA1" s="13" t="s">
+      <c r="CB1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="CB1" s="13" t="s">
+      <c r="CC1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="CC1" s="14" t="s">
+      <c r="CD1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CE1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CF1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="CF1" s="6" t="s">
+      <c r="CG1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CI1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="CJ1" s="6" t="s">
+      <c r="CK1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CL1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="CL1" s="6" t="s">
+      <c r="CM1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CN1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CO1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="CO1" s="6" t="s">
+      <c r="CP1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="CP1" s="6" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CQ1" s="6" t="s">
+      <c r="CR1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="CR1" s="6" t="s">
+      <c r="CS1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="CS1" s="13" t="s">
+      <c r="CT1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="CT1" s="13" t="s">
+      <c r="CU1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CU1" s="13" t="s">
+      <c r="CV1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="CV1" s="13" t="s">
+      <c r="CW1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="CW1" s="13" t="s">
+      <c r="CX1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="CX1" s="14" t="s">
+      <c r="CY1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="CY1" s="14" t="s">
+      <c r="CZ1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="CZ1" s="14" t="s">
+      <c r="DA1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="DA1" s="14" t="s">
+      <c r="DB1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="DB1" s="14" t="s">
+      <c r="DC1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="DC1" s="14" t="s">
+      <c r="DD1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="DD1" s="14" t="s">
+      <c r="DE1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="DE1" s="32" t="s">
+      <c r="DF1" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="DF1" s="14" t="s">
+      <c r="DG1" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="DG1" s="32" t="s">
+      <c r="DH1" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="DH1" s="5" t="s">
+      <c r="DI1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="DI1" s="5" t="s">
+      <c r="DJ1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="DJ1" s="5" t="s">
+      <c r="DK1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="DK1" s="5" t="s">
+      <c r="DL1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="DL1" s="15" t="s">
+      <c r="DM1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="DM1" s="15" t="s">
+      <c r="DN1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="DN1" s="15" t="s">
+      <c r="DO1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="DO1" s="16" t="s">
+      <c r="DP1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="DP1" s="67" t="s">
+      <c r="DQ1" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="DQ1" s="17" t="s">
+      <c r="DR1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DU1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DU1" s="18" t="s">
+      <c r="DV1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DW1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DX1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DY1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EA1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="EA1" s="19" t="s">
+      <c r="EB1" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="EB1" s="20" t="s">
+      <c r="EC1" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="EC1" s="19" t="s">
+      <c r="ED1" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="ED1" s="19" t="s">
+      <c r="EE1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="EE1" s="19" t="s">
+      <c r="EF1" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>124</v>
-      </c>
       <c r="E2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24">
-        <v>1</v>
-      </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>1</v>
       </c>
       <c r="H2" s="25">
@@ -2273,58 +2284,58 @@
       <c r="K2" s="25">
         <v>1</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="25">
         <v>1</v>
       </c>
       <c r="M2" s="26">
         <v>1</v>
       </c>
-      <c r="N2" s="27">
-        <v>1</v>
-      </c>
-      <c r="O2" s="28">
-        <v>1</v>
-      </c>
-      <c r="P2" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="28">
-        <v>1</v>
-      </c>
-      <c r="R2" s="27">
-        <v>1</v>
-      </c>
-      <c r="S2" s="28">
-        <v>1</v>
-      </c>
-      <c r="T2" s="27">
-        <v>1</v>
-      </c>
-      <c r="U2" s="28">
-        <v>1</v>
-      </c>
-      <c r="V2" s="29">
-        <v>1</v>
-      </c>
-      <c r="W2" s="28">
-        <v>1</v>
-      </c>
-      <c r="X2" s="29">
+      <c r="N2" s="26">
+        <v>1</v>
+      </c>
+      <c r="O2" s="27">
+        <v>1</v>
+      </c>
+      <c r="P2" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>1</v>
+      </c>
+      <c r="R2" s="28">
+        <v>1</v>
+      </c>
+      <c r="S2" s="27">
+        <v>1</v>
+      </c>
+      <c r="T2" s="28">
+        <v>1</v>
+      </c>
+      <c r="U2" s="27">
+        <v>1</v>
+      </c>
+      <c r="V2" s="28">
+        <v>1</v>
+      </c>
+      <c r="W2" s="29">
+        <v>1</v>
+      </c>
+      <c r="X2" s="28">
         <v>1</v>
       </c>
       <c r="Y2" s="29">
         <v>1</v>
       </c>
-      <c r="Z2" s="30">
+      <c r="Z2" s="29">
         <v>1</v>
       </c>
       <c r="AA2" s="30">
         <v>1</v>
       </c>
-      <c r="AB2" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="29">
+      <c r="AB2" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="28">
         <v>1</v>
       </c>
       <c r="AD2" s="29">
@@ -2351,94 +2362,94 @@
       <c r="AK2" s="29">
         <v>1</v>
       </c>
-      <c r="AL2" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="29">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="32">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="33">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="29">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="33">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="29">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="33">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="29">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="33">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="29">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="33">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="34">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="33">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="29">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="33">
-        <v>1</v>
-      </c>
-      <c r="BC2" s="29">
-        <v>1</v>
-      </c>
-      <c r="BD2" s="33">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="29">
-        <v>1</v>
-      </c>
-      <c r="BF2" s="33">
-        <v>1</v>
-      </c>
-      <c r="BG2" s="29">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="33">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="29">
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="33">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="29">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="33">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="34">
-        <v>1</v>
-      </c>
-      <c r="BN2" s="33">
-        <v>1</v>
-      </c>
-      <c r="BO2" s="35">
+      <c r="AL2" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="29">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="32">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="29">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="33">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="29">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="33">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="29">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="33">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="29">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="33">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="29">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="34">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="33">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="29">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="33">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="29">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="33">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="29">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="33">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="29">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="33">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="29">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="29">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="33">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="34">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="33">
         <v>1</v>
       </c>
       <c r="BP2" s="35">
@@ -2459,7 +2470,7 @@
       <c r="BU2" s="35">
         <v>1</v>
       </c>
-      <c r="BV2" s="36">
+      <c r="BV2" s="35">
         <v>1</v>
       </c>
       <c r="BW2" s="36">
@@ -2480,10 +2491,10 @@
       <c r="CB2" s="36">
         <v>1</v>
       </c>
-      <c r="CC2" s="37">
-        <v>1</v>
-      </c>
-      <c r="CD2" s="29">
+      <c r="CC2" s="36">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="37">
         <v>1</v>
       </c>
       <c r="CE2" s="29">
@@ -2528,7 +2539,7 @@
       <c r="CR2" s="29">
         <v>1</v>
       </c>
-      <c r="CS2" s="36">
+      <c r="CS2" s="29">
         <v>1</v>
       </c>
       <c r="CT2" s="36">
@@ -2543,7 +2554,7 @@
       <c r="CW2" s="36">
         <v>1</v>
       </c>
-      <c r="CX2" s="37">
+      <c r="CX2" s="36">
         <v>1</v>
       </c>
       <c r="CY2" s="37">
@@ -2564,16 +2575,16 @@
       <c r="DD2" s="37">
         <v>1</v>
       </c>
-      <c r="DE2" s="32">
-        <v>1</v>
-      </c>
-      <c r="DF2" s="37">
-        <v>1</v>
-      </c>
-      <c r="DG2" s="32">
-        <v>1</v>
-      </c>
-      <c r="DH2" s="30">
+      <c r="DE2" s="37">
+        <v>1</v>
+      </c>
+      <c r="DF2" s="32">
+        <v>1</v>
+      </c>
+      <c r="DG2" s="37">
+        <v>1</v>
+      </c>
+      <c r="DH2" s="32">
         <v>1</v>
       </c>
       <c r="DI2" s="30">
@@ -2600,10 +2611,10 @@
       <c r="DP2" s="30">
         <v>1</v>
       </c>
-      <c r="DQ2" s="38">
-        <v>1</v>
-      </c>
-      <c r="DR2" s="30">
+      <c r="DQ2" s="30">
+        <v>1</v>
+      </c>
+      <c r="DR2" s="38">
         <v>1</v>
       </c>
       <c r="DS2" s="30">
@@ -2618,10 +2629,10 @@
       <c r="DV2" s="30">
         <v>1</v>
       </c>
-      <c r="DW2" s="29">
-        <v>1</v>
-      </c>
-      <c r="DX2" s="30">
+      <c r="DW2" s="30">
+        <v>1</v>
+      </c>
+      <c r="DX2" s="29">
         <v>1</v>
       </c>
       <c r="DY2" s="30">
@@ -2630,43 +2641,44 @@
       <c r="DZ2" s="30">
         <v>1</v>
       </c>
-      <c r="EA2" s="38">
-        <v>1</v>
-      </c>
-      <c r="EB2" s="39">
-        <v>1</v>
-      </c>
-      <c r="EC2" s="30">
-        <v>1</v>
-      </c>
-      <c r="ED2" s="38">
-        <v>1</v>
-      </c>
-      <c r="EE2" s="40">
+      <c r="EA2" s="30">
+        <v>1</v>
+      </c>
+      <c r="EB2" s="38">
+        <v>1</v>
+      </c>
+      <c r="EC2" s="39">
+        <v>1</v>
+      </c>
+      <c r="ED2" s="30">
+        <v>1</v>
+      </c>
+      <c r="EE2" s="38">
+        <v>1</v>
+      </c>
+      <c r="EF2" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:135" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <f t="shared" ref="A3:A6" si="0">+A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="D3" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24">
-        <v>1</v>
-      </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>1</v>
       </c>
       <c r="H3" s="25">
@@ -2681,58 +2693,58 @@
       <c r="K3" s="25">
         <v>1</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="25">
         <v>1</v>
       </c>
       <c r="M3" s="26">
         <v>1</v>
       </c>
-      <c r="N3" s="27">
-        <v>1</v>
-      </c>
-      <c r="O3" s="28">
-        <v>1</v>
-      </c>
-      <c r="P3" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>1</v>
-      </c>
-      <c r="R3" s="27">
-        <v>1</v>
-      </c>
-      <c r="S3" s="28">
-        <v>1</v>
-      </c>
-      <c r="T3" s="27">
-        <v>1</v>
-      </c>
-      <c r="U3" s="28">
-        <v>1</v>
-      </c>
-      <c r="V3" s="29">
-        <v>1</v>
-      </c>
-      <c r="W3" s="28">
-        <v>1</v>
-      </c>
-      <c r="X3" s="29">
+      <c r="N3" s="26">
+        <v>1</v>
+      </c>
+      <c r="O3" s="27">
+        <v>1</v>
+      </c>
+      <c r="P3" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>1</v>
+      </c>
+      <c r="R3" s="28">
+        <v>1</v>
+      </c>
+      <c r="S3" s="27">
+        <v>1</v>
+      </c>
+      <c r="T3" s="28">
+        <v>1</v>
+      </c>
+      <c r="U3" s="27">
+        <v>1</v>
+      </c>
+      <c r="V3" s="28">
+        <v>1</v>
+      </c>
+      <c r="W3" s="29">
+        <v>1</v>
+      </c>
+      <c r="X3" s="28">
         <v>1</v>
       </c>
       <c r="Y3" s="29">
         <v>1</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="29">
         <v>1</v>
       </c>
       <c r="AA3" s="30">
         <v>1</v>
       </c>
-      <c r="AB3" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="29">
+      <c r="AB3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="28">
         <v>1</v>
       </c>
       <c r="AD3" s="29">
@@ -2759,94 +2771,94 @@
       <c r="AK3" s="29">
         <v>1</v>
       </c>
-      <c r="AL3" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="29">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="32">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="29">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="29">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="29">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="29">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="34">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="29">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="29">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="29">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="29">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="29">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="29">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="34">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="35">
+      <c r="AL3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="32">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="34">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="29">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="29">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="29">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="29">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="29">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="29">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="34">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="33">
         <v>1</v>
       </c>
       <c r="BP3" s="35">
@@ -2867,7 +2879,7 @@
       <c r="BU3" s="35">
         <v>1</v>
       </c>
-      <c r="BV3" s="36">
+      <c r="BV3" s="35">
         <v>1</v>
       </c>
       <c r="BW3" s="36">
@@ -2888,10 +2900,10 @@
       <c r="CB3" s="36">
         <v>1</v>
       </c>
-      <c r="CC3" s="37">
-        <v>1</v>
-      </c>
-      <c r="CD3" s="29">
+      <c r="CC3" s="36">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="37">
         <v>1</v>
       </c>
       <c r="CE3" s="29">
@@ -2936,7 +2948,7 @@
       <c r="CR3" s="29">
         <v>1</v>
       </c>
-      <c r="CS3" s="36">
+      <c r="CS3" s="29">
         <v>1</v>
       </c>
       <c r="CT3" s="36">
@@ -2951,7 +2963,7 @@
       <c r="CW3" s="36">
         <v>1</v>
       </c>
-      <c r="CX3" s="37">
+      <c r="CX3" s="36">
         <v>1</v>
       </c>
       <c r="CY3" s="37">
@@ -2972,16 +2984,16 @@
       <c r="DD3" s="37">
         <v>1</v>
       </c>
-      <c r="DE3" s="32">
-        <v>1</v>
-      </c>
-      <c r="DF3" s="37">
-        <v>1</v>
-      </c>
-      <c r="DG3" s="32">
-        <v>1</v>
-      </c>
-      <c r="DH3" s="30">
+      <c r="DE3" s="37">
+        <v>1</v>
+      </c>
+      <c r="DF3" s="32">
+        <v>1</v>
+      </c>
+      <c r="DG3" s="37">
+        <v>1</v>
+      </c>
+      <c r="DH3" s="32">
         <v>1</v>
       </c>
       <c r="DI3" s="30">
@@ -3008,10 +3020,10 @@
       <c r="DP3" s="30">
         <v>1</v>
       </c>
-      <c r="DQ3" s="38">
-        <v>1</v>
-      </c>
-      <c r="DR3" s="30">
+      <c r="DQ3" s="30">
+        <v>1</v>
+      </c>
+      <c r="DR3" s="38">
         <v>1</v>
       </c>
       <c r="DS3" s="30">
@@ -3026,10 +3038,10 @@
       <c r="DV3" s="30">
         <v>1</v>
       </c>
-      <c r="DW3" s="29">
-        <v>1</v>
-      </c>
-      <c r="DX3" s="30">
+      <c r="DW3" s="30">
+        <v>1</v>
+      </c>
+      <c r="DX3" s="29">
         <v>1</v>
       </c>
       <c r="DY3" s="30">
@@ -3038,43 +3050,44 @@
       <c r="DZ3" s="30">
         <v>1</v>
       </c>
-      <c r="EA3" s="38">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="39">
-        <v>1</v>
-      </c>
-      <c r="EC3" s="30">
-        <v>1</v>
-      </c>
-      <c r="ED3" s="38">
-        <v>1</v>
-      </c>
-      <c r="EE3" s="40">
+      <c r="EA3" s="30">
+        <v>1</v>
+      </c>
+      <c r="EB3" s="38">
+        <v>1</v>
+      </c>
+      <c r="EC3" s="39">
+        <v>1</v>
+      </c>
+      <c r="ED3" s="30">
+        <v>1</v>
+      </c>
+      <c r="EE3" s="38">
+        <v>1</v>
+      </c>
+      <c r="EF3" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:135" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="24">
-        <v>1</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>1</v>
       </c>
       <c r="H4" s="25">
@@ -3089,58 +3102,58 @@
       <c r="K4" s="25">
         <v>1</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="25">
         <v>1</v>
       </c>
       <c r="M4" s="26">
         <v>1</v>
       </c>
-      <c r="N4" s="27">
-        <v>1</v>
-      </c>
-      <c r="O4" s="28">
-        <v>1</v>
-      </c>
-      <c r="P4" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="28">
-        <v>1</v>
-      </c>
-      <c r="R4" s="27">
-        <v>1</v>
-      </c>
-      <c r="S4" s="28">
-        <v>1</v>
-      </c>
-      <c r="T4" s="27">
-        <v>1</v>
-      </c>
-      <c r="U4" s="28">
-        <v>1</v>
-      </c>
-      <c r="V4" s="29">
-        <v>1</v>
-      </c>
-      <c r="W4" s="28">
-        <v>1</v>
-      </c>
-      <c r="X4" s="29">
+      <c r="N4" s="26">
+        <v>1</v>
+      </c>
+      <c r="O4" s="27">
+        <v>1</v>
+      </c>
+      <c r="P4" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>1</v>
+      </c>
+      <c r="R4" s="28">
+        <v>1</v>
+      </c>
+      <c r="S4" s="27">
+        <v>1</v>
+      </c>
+      <c r="T4" s="28">
+        <v>1</v>
+      </c>
+      <c r="U4" s="27">
+        <v>1</v>
+      </c>
+      <c r="V4" s="28">
+        <v>1</v>
+      </c>
+      <c r="W4" s="29">
+        <v>1</v>
+      </c>
+      <c r="X4" s="28">
         <v>1</v>
       </c>
       <c r="Y4" s="29">
         <v>1</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="29">
         <v>1</v>
       </c>
       <c r="AA4" s="30">
         <v>1</v>
       </c>
-      <c r="AB4" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="29">
+      <c r="AB4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="28">
         <v>1</v>
       </c>
       <c r="AD4" s="29">
@@ -3167,94 +3180,94 @@
       <c r="AK4" s="29">
         <v>1</v>
       </c>
-      <c r="AL4" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="29">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="32">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="33">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="29">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="33">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="29">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="33">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="29">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="33">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="29">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="33">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="34">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="33">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="29">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="33">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="29">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="33">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="29">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="33">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="29">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="33">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="29">
-        <v>1</v>
-      </c>
-      <c r="BJ4" s="33">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="29">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="33">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="34">
-        <v>1</v>
-      </c>
-      <c r="BN4" s="33">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="35">
+      <c r="AL4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="32">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="33">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="33">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="33">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="33">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="34">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="33">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="29">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="33">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="29">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="33">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="29">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="33">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="29">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="33">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="29">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="29">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="33">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="34">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="33">
         <v>1</v>
       </c>
       <c r="BP4" s="35">
@@ -3275,7 +3288,7 @@
       <c r="BU4" s="35">
         <v>1</v>
       </c>
-      <c r="BV4" s="36">
+      <c r="BV4" s="35">
         <v>1</v>
       </c>
       <c r="BW4" s="36">
@@ -3296,10 +3309,10 @@
       <c r="CB4" s="36">
         <v>1</v>
       </c>
-      <c r="CC4" s="37">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="29">
+      <c r="CC4" s="36">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="37">
         <v>1</v>
       </c>
       <c r="CE4" s="29">
@@ -3344,7 +3357,7 @@
       <c r="CR4" s="29">
         <v>1</v>
       </c>
-      <c r="CS4" s="36">
+      <c r="CS4" s="29">
         <v>1</v>
       </c>
       <c r="CT4" s="36">
@@ -3359,7 +3372,7 @@
       <c r="CW4" s="36">
         <v>1</v>
       </c>
-      <c r="CX4" s="37">
+      <c r="CX4" s="36">
         <v>1</v>
       </c>
       <c r="CY4" s="37">
@@ -3380,16 +3393,16 @@
       <c r="DD4" s="37">
         <v>1</v>
       </c>
-      <c r="DE4" s="32">
-        <v>1</v>
-      </c>
-      <c r="DF4" s="37">
-        <v>1</v>
-      </c>
-      <c r="DG4" s="32">
-        <v>1</v>
-      </c>
-      <c r="DH4" s="30">
+      <c r="DE4" s="37">
+        <v>1</v>
+      </c>
+      <c r="DF4" s="32">
+        <v>1</v>
+      </c>
+      <c r="DG4" s="37">
+        <v>1</v>
+      </c>
+      <c r="DH4" s="32">
         <v>1</v>
       </c>
       <c r="DI4" s="30">
@@ -3416,10 +3429,10 @@
       <c r="DP4" s="30">
         <v>1</v>
       </c>
-      <c r="DQ4" s="38">
-        <v>1</v>
-      </c>
-      <c r="DR4" s="30">
+      <c r="DQ4" s="30">
+        <v>1</v>
+      </c>
+      <c r="DR4" s="38">
         <v>1</v>
       </c>
       <c r="DS4" s="30">
@@ -3434,10 +3447,10 @@
       <c r="DV4" s="30">
         <v>1</v>
       </c>
-      <c r="DW4" s="29">
-        <v>1</v>
-      </c>
-      <c r="DX4" s="30">
+      <c r="DW4" s="30">
+        <v>1</v>
+      </c>
+      <c r="DX4" s="29">
         <v>1</v>
       </c>
       <c r="DY4" s="30">
@@ -3446,43 +3459,44 @@
       <c r="DZ4" s="30">
         <v>1</v>
       </c>
-      <c r="EA4" s="38">
-        <v>1</v>
-      </c>
-      <c r="EB4" s="39">
-        <v>1</v>
-      </c>
-      <c r="EC4" s="30">
-        <v>1</v>
-      </c>
-      <c r="ED4" s="38">
-        <v>1</v>
-      </c>
-      <c r="EE4" s="40">
+      <c r="EA4" s="30">
+        <v>1</v>
+      </c>
+      <c r="EB4" s="38">
+        <v>1</v>
+      </c>
+      <c r="EC4" s="39">
+        <v>1</v>
+      </c>
+      <c r="ED4" s="30">
+        <v>1</v>
+      </c>
+      <c r="EE4" s="38">
+        <v>1</v>
+      </c>
+      <c r="EF4" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:135" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="D5" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="F5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="24">
-        <v>1</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>1</v>
       </c>
       <c r="H5" s="25">
@@ -3497,58 +3511,58 @@
       <c r="K5" s="25">
         <v>1</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="25">
         <v>1</v>
       </c>
       <c r="M5" s="26">
         <v>1</v>
       </c>
-      <c r="N5" s="27">
-        <v>1</v>
-      </c>
-      <c r="O5" s="28">
-        <v>1</v>
-      </c>
-      <c r="P5" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="28">
-        <v>1</v>
-      </c>
-      <c r="R5" s="27">
-        <v>1</v>
-      </c>
-      <c r="S5" s="28">
-        <v>1</v>
-      </c>
-      <c r="T5" s="27">
-        <v>1</v>
-      </c>
-      <c r="U5" s="28">
-        <v>1</v>
-      </c>
-      <c r="V5" s="29">
-        <v>1</v>
-      </c>
-      <c r="W5" s="28">
-        <v>1</v>
-      </c>
-      <c r="X5" s="29">
+      <c r="N5" s="26">
+        <v>1</v>
+      </c>
+      <c r="O5" s="27">
+        <v>1</v>
+      </c>
+      <c r="P5" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>1</v>
+      </c>
+      <c r="R5" s="28">
+        <v>1</v>
+      </c>
+      <c r="S5" s="27">
+        <v>1</v>
+      </c>
+      <c r="T5" s="28">
+        <v>1</v>
+      </c>
+      <c r="U5" s="27">
+        <v>1</v>
+      </c>
+      <c r="V5" s="28">
+        <v>1</v>
+      </c>
+      <c r="W5" s="29">
+        <v>1</v>
+      </c>
+      <c r="X5" s="28">
         <v>1</v>
       </c>
       <c r="Y5" s="29">
         <v>1</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="29">
         <v>1</v>
       </c>
       <c r="AA5" s="30">
         <v>1</v>
       </c>
-      <c r="AB5" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="29">
+      <c r="AB5" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="28">
         <v>1</v>
       </c>
       <c r="AD5" s="29">
@@ -3575,94 +3589,94 @@
       <c r="AK5" s="29">
         <v>1</v>
       </c>
-      <c r="AL5" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="29">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="32">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="33">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="29">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="33">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="29">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="33">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="29">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="33">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="29">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="33">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="34">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="33">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="29">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="33">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="29">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="33">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="29">
-        <v>1</v>
-      </c>
-      <c r="BF5" s="33">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="29">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="33">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="29">
-        <v>1</v>
-      </c>
-      <c r="BJ5" s="33">
-        <v>1</v>
-      </c>
-      <c r="BK5" s="29">
-        <v>1</v>
-      </c>
-      <c r="BL5" s="33">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="34">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="33">
-        <v>1</v>
-      </c>
-      <c r="BO5" s="35">
+      <c r="AL5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="32">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="33">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="33">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="33">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="33">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="34">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="33">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="29">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="33">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="29">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="33">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="29">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="33">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="29">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="33">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="29">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="29">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="33">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="34">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="33">
         <v>1</v>
       </c>
       <c r="BP5" s="35">
@@ -3683,7 +3697,7 @@
       <c r="BU5" s="35">
         <v>1</v>
       </c>
-      <c r="BV5" s="36">
+      <c r="BV5" s="35">
         <v>1</v>
       </c>
       <c r="BW5" s="36">
@@ -3704,10 +3718,10 @@
       <c r="CB5" s="36">
         <v>1</v>
       </c>
-      <c r="CC5" s="37">
-        <v>1</v>
-      </c>
-      <c r="CD5" s="29">
+      <c r="CC5" s="36">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="37">
         <v>1</v>
       </c>
       <c r="CE5" s="29">
@@ -3752,7 +3766,7 @@
       <c r="CR5" s="29">
         <v>1</v>
       </c>
-      <c r="CS5" s="36">
+      <c r="CS5" s="29">
         <v>1</v>
       </c>
       <c r="CT5" s="36">
@@ -3767,7 +3781,7 @@
       <c r="CW5" s="36">
         <v>1</v>
       </c>
-      <c r="CX5" s="37">
+      <c r="CX5" s="36">
         <v>1</v>
       </c>
       <c r="CY5" s="37">
@@ -3788,16 +3802,16 @@
       <c r="DD5" s="37">
         <v>1</v>
       </c>
-      <c r="DE5" s="32">
-        <v>1</v>
-      </c>
-      <c r="DF5" s="37">
-        <v>1</v>
-      </c>
-      <c r="DG5" s="32">
-        <v>1</v>
-      </c>
-      <c r="DH5" s="30">
+      <c r="DE5" s="37">
+        <v>1</v>
+      </c>
+      <c r="DF5" s="32">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="37">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="32">
         <v>1</v>
       </c>
       <c r="DI5" s="30">
@@ -3824,10 +3838,10 @@
       <c r="DP5" s="30">
         <v>1</v>
       </c>
-      <c r="DQ5" s="38">
-        <v>1</v>
-      </c>
-      <c r="DR5" s="30">
+      <c r="DQ5" s="30">
+        <v>1</v>
+      </c>
+      <c r="DR5" s="38">
         <v>1</v>
       </c>
       <c r="DS5" s="30">
@@ -3842,10 +3856,10 @@
       <c r="DV5" s="30">
         <v>1</v>
       </c>
-      <c r="DW5" s="29">
-        <v>1</v>
-      </c>
-      <c r="DX5" s="30">
+      <c r="DW5" s="30">
+        <v>1</v>
+      </c>
+      <c r="DX5" s="29">
         <v>1</v>
       </c>
       <c r="DY5" s="30">
@@ -3854,43 +3868,44 @@
       <c r="DZ5" s="30">
         <v>1</v>
       </c>
-      <c r="EA5" s="38">
-        <v>1</v>
-      </c>
-      <c r="EB5" s="39">
-        <v>1</v>
-      </c>
-      <c r="EC5" s="30">
-        <v>1</v>
-      </c>
-      <c r="ED5" s="38">
-        <v>1</v>
-      </c>
-      <c r="EE5" s="40">
+      <c r="EA5" s="30">
+        <v>1</v>
+      </c>
+      <c r="EB5" s="38">
+        <v>1</v>
+      </c>
+      <c r="EC5" s="39">
+        <v>1</v>
+      </c>
+      <c r="ED5" s="30">
+        <v>1</v>
+      </c>
+      <c r="EE5" s="38">
+        <v>1</v>
+      </c>
+      <c r="EF5" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:135" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="D6" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="24">
-        <v>1</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>1</v>
       </c>
       <c r="H6" s="25">
@@ -3905,58 +3920,58 @@
       <c r="K6" s="25">
         <v>1</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="25">
         <v>1</v>
       </c>
       <c r="M6" s="26">
         <v>1</v>
       </c>
-      <c r="N6" s="27">
-        <v>1</v>
-      </c>
-      <c r="O6" s="28">
-        <v>1</v>
-      </c>
-      <c r="P6" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="28">
-        <v>1</v>
-      </c>
-      <c r="R6" s="27">
-        <v>1</v>
-      </c>
-      <c r="S6" s="28">
-        <v>1</v>
-      </c>
-      <c r="T6" s="27">
-        <v>1</v>
-      </c>
-      <c r="U6" s="28">
-        <v>1</v>
-      </c>
-      <c r="V6" s="29">
-        <v>1</v>
-      </c>
-      <c r="W6" s="28">
-        <v>1</v>
-      </c>
-      <c r="X6" s="29">
+      <c r="N6" s="26">
+        <v>1</v>
+      </c>
+      <c r="O6" s="27">
+        <v>1</v>
+      </c>
+      <c r="P6" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>1</v>
+      </c>
+      <c r="R6" s="28">
+        <v>1</v>
+      </c>
+      <c r="S6" s="27">
+        <v>1</v>
+      </c>
+      <c r="T6" s="28">
+        <v>1</v>
+      </c>
+      <c r="U6" s="27">
+        <v>1</v>
+      </c>
+      <c r="V6" s="28">
+        <v>1</v>
+      </c>
+      <c r="W6" s="29">
+        <v>1</v>
+      </c>
+      <c r="X6" s="28">
         <v>1</v>
       </c>
       <c r="Y6" s="29">
         <v>1</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="29">
         <v>1</v>
       </c>
       <c r="AA6" s="30">
         <v>1</v>
       </c>
-      <c r="AB6" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="29">
+      <c r="AB6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="28">
         <v>1</v>
       </c>
       <c r="AD6" s="29">
@@ -3983,94 +3998,94 @@
       <c r="AK6" s="29">
         <v>1</v>
       </c>
-      <c r="AL6" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="29">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="32">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="33">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="29">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="33">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="29">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="33">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="29">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="33">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="29">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="33">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="34">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="33">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="29">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="33">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="29">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="33">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="29">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="33">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="29">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="33">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="29">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="33">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="29">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="33">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="34">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="33">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="35">
+      <c r="AL6" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="29">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="32">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="29">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="33">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="29">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="33">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="29">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="33">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="29">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="33">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="29">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="34">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="33">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="29">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="33">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="29">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="33">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="29">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="33">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="29">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="33">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="29">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="29">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="33">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="34">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="33">
         <v>1</v>
       </c>
       <c r="BP6" s="35">
@@ -4091,7 +4106,7 @@
       <c r="BU6" s="35">
         <v>1</v>
       </c>
-      <c r="BV6" s="36">
+      <c r="BV6" s="35">
         <v>1</v>
       </c>
       <c r="BW6" s="36">
@@ -4112,10 +4127,10 @@
       <c r="CB6" s="36">
         <v>1</v>
       </c>
-      <c r="CC6" s="37">
-        <v>1</v>
-      </c>
-      <c r="CD6" s="29">
+      <c r="CC6" s="36">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="37">
         <v>1</v>
       </c>
       <c r="CE6" s="29">
@@ -4160,7 +4175,7 @@
       <c r="CR6" s="29">
         <v>1</v>
       </c>
-      <c r="CS6" s="36">
+      <c r="CS6" s="29">
         <v>1</v>
       </c>
       <c r="CT6" s="36">
@@ -4175,7 +4190,7 @@
       <c r="CW6" s="36">
         <v>1</v>
       </c>
-      <c r="CX6" s="37">
+      <c r="CX6" s="36">
         <v>1</v>
       </c>
       <c r="CY6" s="37">
@@ -4196,16 +4211,16 @@
       <c r="DD6" s="37">
         <v>1</v>
       </c>
-      <c r="DE6" s="32">
-        <v>1</v>
-      </c>
-      <c r="DF6" s="37">
-        <v>1</v>
-      </c>
-      <c r="DG6" s="32">
-        <v>1</v>
-      </c>
-      <c r="DH6" s="30">
+      <c r="DE6" s="37">
+        <v>1</v>
+      </c>
+      <c r="DF6" s="32">
+        <v>1</v>
+      </c>
+      <c r="DG6" s="37">
+        <v>1</v>
+      </c>
+      <c r="DH6" s="32">
         <v>1</v>
       </c>
       <c r="DI6" s="30">
@@ -4232,10 +4247,10 @@
       <c r="DP6" s="30">
         <v>1</v>
       </c>
-      <c r="DQ6" s="38">
-        <v>1</v>
-      </c>
-      <c r="DR6" s="30">
+      <c r="DQ6" s="30">
+        <v>1</v>
+      </c>
+      <c r="DR6" s="38">
         <v>1</v>
       </c>
       <c r="DS6" s="30">
@@ -4250,10 +4265,10 @@
       <c r="DV6" s="30">
         <v>1</v>
       </c>
-      <c r="DW6" s="29">
-        <v>1</v>
-      </c>
-      <c r="DX6" s="30">
+      <c r="DW6" s="30">
+        <v>1</v>
+      </c>
+      <c r="DX6" s="29">
         <v>1</v>
       </c>
       <c r="DY6" s="30">
@@ -4262,28 +4277,31 @@
       <c r="DZ6" s="30">
         <v>1</v>
       </c>
-      <c r="EA6" s="38">
-        <v>1</v>
-      </c>
-      <c r="EB6" s="39">
-        <v>1</v>
-      </c>
-      <c r="EC6" s="30">
-        <v>1</v>
-      </c>
-      <c r="ED6" s="38">
-        <v>1</v>
-      </c>
-      <c r="EE6" s="40">
+      <c r="EA6" s="30">
+        <v>1</v>
+      </c>
+      <c r="EB6" s="38">
+        <v>1</v>
+      </c>
+      <c r="EC6" s="39">
+        <v>1</v>
+      </c>
+      <c r="ED6" s="30">
+        <v>1</v>
+      </c>
+      <c r="EE6" s="38">
+        <v>1</v>
+      </c>
+      <c r="EF6" s="40">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:EE6"/>
-  <conditionalFormatting sqref="C6">
+  <autoFilter ref="A1:EF6"/>
+  <conditionalFormatting sqref="D6">
     <cfRule type="duplicateValues" dxfId="44" priority="558"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="D6">
     <cfRule type="duplicateValues" dxfId="43" priority="550"/>
     <cfRule type="duplicateValues" dxfId="42" priority="551"/>
     <cfRule type="duplicateValues" dxfId="41" priority="552"/>
@@ -4293,10 +4311,10 @@
     <cfRule type="duplicateValues" dxfId="37" priority="556"/>
     <cfRule type="duplicateValues" dxfId="36" priority="557"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="D5">
     <cfRule type="duplicateValues" dxfId="35" priority="549"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="D5">
     <cfRule type="duplicateValues" dxfId="34" priority="541"/>
     <cfRule type="duplicateValues" dxfId="33" priority="542"/>
     <cfRule type="duplicateValues" dxfId="32" priority="543"/>
@@ -4306,10 +4324,10 @@
     <cfRule type="duplicateValues" dxfId="28" priority="547"/>
     <cfRule type="duplicateValues" dxfId="27" priority="548"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="D4">
     <cfRule type="duplicateValues" dxfId="26" priority="540"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="D4">
     <cfRule type="duplicateValues" dxfId="25" priority="532"/>
     <cfRule type="duplicateValues" dxfId="24" priority="533"/>
     <cfRule type="duplicateValues" dxfId="23" priority="534"/>
@@ -4319,10 +4337,10 @@
     <cfRule type="duplicateValues" dxfId="19" priority="538"/>
     <cfRule type="duplicateValues" dxfId="18" priority="539"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="D3">
     <cfRule type="duplicateValues" dxfId="17" priority="531"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="D3">
     <cfRule type="duplicateValues" dxfId="16" priority="523"/>
     <cfRule type="duplicateValues" dxfId="15" priority="524"/>
     <cfRule type="duplicateValues" dxfId="14" priority="525"/>
@@ -4332,10 +4350,10 @@
     <cfRule type="duplicateValues" dxfId="10" priority="529"/>
     <cfRule type="duplicateValues" dxfId="9" priority="530"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="D2">
     <cfRule type="duplicateValues" dxfId="8" priority="522"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="D2">
     <cfRule type="duplicateValues" dxfId="7" priority="514"/>
     <cfRule type="duplicateValues" dxfId="6" priority="515"/>
     <cfRule type="duplicateValues" dxfId="5" priority="516"/>
@@ -4346,18 +4364,18 @@
     <cfRule type="duplicateValues" dxfId="0" priority="521"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.35433070866141703" bottom="0.35433070866141703" header="0.15748031496063" footer="0"/>
   <pageSetup paperSize="9" scale="10" orientation="landscape" r:id="rId6"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="12" max="5" man="1"/>
+    <brk id="13" max="5" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId7"/>
 </worksheet>
